--- a/_MRIP/MRIP Succession Transitions.xlsx
+++ b/_MRIP/MRIP Succession Transitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="0" windowWidth="19600" windowHeight="23560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="17500" yWindow="0" windowWidth="21040" windowHeight="19620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="12-7" sheetId="1" r:id="rId1"/>
     <sheet name="Wies" sheetId="2" r:id="rId2"/>
     <sheet name="modify 7-1" sheetId="3" r:id="rId3"/>
+    <sheet name="reduce 8-29" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
   <si>
     <t>Succession Type</t>
   </si>
@@ -343,8 +344,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -371,17 +374,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2607,9 +2612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4396,6 +4401,951 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>80</v>
+      </c>
+      <c r="D2" s="7">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7">
+        <v>140</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1/C2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <f>1/D2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f>1/E2</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>1/D3</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>1/E3</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C10+C11</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D10+D11</f>
+        <v>2.7884615384615386E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E10+E11</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f>SUM(C13:G13)</f>
+        <v>5.467032967032967E-2</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="S13" s="6"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f>C10/C13</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>D10/D13</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="E16">
+        <f>E10/E13</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>C11/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>D11/D13</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E17">
+        <f>E11/E13</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="11"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f>C13/$H$13</f>
+        <v>0.22864321608040203</v>
+      </c>
+      <c r="D21">
+        <f>D13/$H$13</f>
+        <v>0.51005025125628145</v>
+      </c>
+      <c r="E21">
+        <f>E13/$H$13</f>
+        <v>0.26130653266331655</v>
+      </c>
+      <c r="H21">
+        <f>SUM(C21:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>C10/C13</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>D10/D13</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="E22">
+        <f>E10/E13</f>
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>C11/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>D11/D13</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E23">
+        <f>E11/E13</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="7"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="7"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>0.35</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="H27">
+        <f>SUM(C27:E27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <f>C13*C27</f>
+        <v>4.3749999999999995E-3</v>
+      </c>
+      <c r="D29">
+        <f>D13*D27</f>
+        <v>1.3942307692307693E-2</v>
+      </c>
+      <c r="E29">
+        <f>E13*E27</f>
+        <v>2.1428571428571425E-3</v>
+      </c>
+      <c r="H29">
+        <f>SUM(C29:E29)</f>
+        <v>2.0460164835164836E-2</v>
+      </c>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <f>C10*C27</f>
+        <v>4.3749999999999995E-3</v>
+      </c>
+      <c r="D30">
+        <f>D10*D27</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E30">
+        <f>E10*E27</f>
+        <v>1.0714285714285713E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H31" si="0">SUM(C30:E30)</f>
+        <v>1.1696428571428569E-2</v>
+      </c>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f>C11*C27</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>D11*D27</f>
+        <v>7.6923076923076927E-3</v>
+      </c>
+      <c r="E31">
+        <f>E11*E27</f>
+        <v>1.0714285714285713E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>8.7637362637362631E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <f>1/C35</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="C35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <f>C35/C40</f>
+        <v>2.2656899025753342E-2</v>
+      </c>
+      <c r="F35">
+        <f>F40*D35</f>
+        <v>4.6356388872059896E-4</v>
+      </c>
+      <c r="H35">
+        <f>H30</f>
+        <v>1.1696428571428569E-2</v>
+      </c>
+      <c r="I35">
+        <f>1/H35</f>
+        <v>85.496183206106892</v>
+      </c>
+      <c r="J35">
+        <f>H35/H40</f>
+        <v>0.57166834508224229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ref="B36:B40" si="1">1/C36</f>
+        <v>34.002040122407344</v>
+      </c>
+      <c r="C36">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <f>C36/C40</f>
+        <v>0.22211313344913525</v>
+      </c>
+      <c r="F36">
+        <f>F40*D36</f>
+        <v>4.5444713224242718E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <f>C39/C40</f>
+        <v>0.7552299675251114</v>
+      </c>
+      <c r="F39">
+        <f>F40*D39</f>
+        <v>1.5452129624019966E-2</v>
+      </c>
+      <c r="H39">
+        <f>H31</f>
+        <v>8.7637362637362631E-3</v>
+      </c>
+      <c r="I39">
+        <f>1/H39</f>
+        <v>114.10658307210032</v>
+      </c>
+      <c r="J39">
+        <f>H39/H40</f>
+        <v>0.42833165491775765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5522996752511142</v>
+      </c>
+      <c r="C40">
+        <v>0.13241</v>
+      </c>
+      <c r="D40">
+        <f>D35+D36+D39</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>H29</f>
+        <v>2.0460164835164836E-2</v>
+      </c>
+      <c r="H40">
+        <f>H35+H39</f>
+        <v>2.0460164835164833E-2</v>
+      </c>
+      <c r="I40">
+        <f>1/H40</f>
+        <v>48.87546156428332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
